--- a/Java_QuanLyBanSach/QuanLyBanSach/src/main/resources/templates/Employee_Template.xlsx
+++ b/Java_QuanLyBanSach/QuanLyBanSach/src/main/resources/templates/Employee_Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a3d1617acc8e9525/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHANH\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{08950B78-906A-407E-9C8C-DFC175CA33B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED4FD726-F018-4712-A504-087EAEFA2749}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D21279-799E-4750-BFCF-15D261F0BF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,8 +76,7 @@
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -85,20 +84,27 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="163"/>
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -125,7 +131,9 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -138,281 +146,26 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="163"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="163"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="163"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="163"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="163"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="163"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="163"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="163"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="163"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="163"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="163"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="163"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -423,25 +176,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{51F63763-3B75-48DC-AB18-B0AC24B93D48}" name="Table1" displayName="Table1" ref="A3:J6" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
-  <autoFilter ref="A3:J6" xr:uid="{51F63763-3B75-48DC-AB18-B0AC24B93D48}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{A53BE5B1-8B3F-410E-AC20-5285DF70B787}" name="Mã nhân viên" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{60B4CF21-5C6E-4466-B439-1BCA0112B561}" name="Tên" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{7C020CA4-8C48-424C-9E4F-8808B2A54939}" name="Họ" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{77072065-A470-443D-A0AA-9DE56B53A914}" name="Ngày sinh" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{B7DDBF3C-18DF-4598-B40D-6F9FE7B65277}" name="Ngày tuyển dụng" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{6CF89853-470F-4639-934D-BCA8C0F12F33}" name="Email" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{611BD462-3C7F-4254-BB60-97C88557C047}" name="Số điện thoại" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{F37E476C-E98F-4D01-804E-4E224F3587D8}" name="Địa chỉ" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{BD32CF45-E23F-444C-91D2-F35AEC3A03F2}" name="Lương" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{960515C8-02B7-4E41-9576-181085A4EA5D}" name="Chức vụ" dataDxfId="1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -731,15 +465,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.875" style="1" bestFit="1" customWidth="1"/>
@@ -782,41 +516,74 @@
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="6" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>